--- a/New_tables/Table_uchiton.xlsx
+++ b/New_tables/Table_uchiton.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Members_Data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,230 +413,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="24" customWidth="1" min="1" max="1"/>
-    <col width="15" customWidth="1" min="2" max="2"/>
-    <col width="30" customWidth="1" min="3" max="3"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Эдвард Шульц</t>
-        </is>
-      </c>
-      <c r="B1" t="n">
-        <v>224169014</v>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>https://vk.com/224169014</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Владислав Базин</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>226472316</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>https://vk.com/226472316</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Женя Михайлов</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>231936063</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>https://vk.com/231936063</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Марианна Каширина</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>362749579</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>https://vk.com/362749579</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Антон Чуркин</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>404817986</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>https://vk.com/404817986</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Madara Uchiha</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>512022110</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>https://vk.com/512022110</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Евгений Новожилов</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>513145873</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>https://vk.com/513145873</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Вадим Кузьмин</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>542063563</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>https://vk.com/542063563</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Маша Гнатюк</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>544111702</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>https://vk.com/544111702</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Андрюха Соколов</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>554249684</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>https://vk.com/554249684</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Дарья Крашенинникова</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>574334591</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>https://vk.com/574334591</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Лина Рифатова</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>630850246</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>https://vk.com/630850246</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Николия Кёртова</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>651611973</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>https://vk.com/651611973</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Ксения Ежова</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>660634855</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>https://vk.com/660634855</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>